--- a/biology/Zoologie/Beishanlong/Beishanlong.xlsx
+++ b/biology/Zoologie/Beishanlong/Beishanlong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beishanlong grandis
 Beishanlong grandis est un genre éteint de dinosaures théropodes, un ornithomimosaurien géant, rattaché à la famille des deinocheiridés. Il a été découvert dans la province du Gansu dans le nord-ouest de la Chine où il a vécu au Crétacé inférieur (Aptien et Albien).
-Une seule espèce est rattachée au genre, Beishanlong grandis, décrite par Peter J. Makovicky (d) et son équipe en 2010[1].
+Une seule espèce est rattachée au genre, Beishanlong grandis, décrite par Peter J. Makovicky (d) et son équipe en 2010.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Beishanlong est composé de deux mots du mandarin : « Bei Shan », « Montagne du nord » , et « long » pour « dragon ». Le nom d'espèce « grandis » est le latin pour « grand ». Le nom binominal signifie donc : « grand dragon de la montagne du nord »[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Beishanlong est composé de deux mots du mandarin : « Bei Shan », « Montagne du nord » , et « long » pour « dragon ». Le nom d'espèce « grandis » est le latin pour « grand ». Le nom binominal signifie donc : « grand dragon de la montagne du nord ». 
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beishanlong est l'un des plus grands des ornithomimosauriens. Il se place derrière l'immense Deinocheirus (11 mètres de long pour un poids estimé de 6,4 tonnes) et juste après Gallimimus dont la longueur totale pouvait atteindre 8 mètres[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beishanlong est l'un des plus grands des ornithomimosauriens. Il se place derrière l'immense Deinocheirus (11 mètres de long pour un poids estimé de 6,4 tonnes) et juste après Gallimimus dont la longueur totale pouvait atteindre 8 mètres. 
 Les inventeurs de Beishanlong soulignent que l'étude histologique de ses os montre que le spécimen holotype n'avait pas atteint tout à fait sa taille adulte.
-Sa taille et son poids sont extrapolés à partir de son fémur dont la longueur atteint 66 centimètres. Le poids de Beishanlong est ainsi estimé à 620 kg par ses inventeurs. Gregory S. Paul, en 2010 également, évalue sa longueur à 7 mètres pour un poids de 550 kg[2]. 
-C'est un animal robuste avec de longs membres mais avec des mains et des pieds moins évolués que chez les ornithomimosauriens plus récents et avec des griffes moins longues[1].
+Sa taille et son poids sont extrapolés à partir de son fémur dont la longueur atteint 66 centimètres. Le poids de Beishanlong est ainsi estimé à 620 kg par ses inventeurs. Gregory S. Paul, en 2010 également, évalue sa longueur à 7 mètres pour un poids de 550 kg. 
+C'est un animal robuste avec de longs membres mais avec des mains et des pieds moins évolués que chez les ornithomimosauriens plus récents et avec des griffes moins longues.
 </t>
         </is>
       </c>
@@ -578,12 +594,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les inventeurs du genre considèrent Beishanlong comme un ornithomimosaurien basal en 2010[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inventeurs du genre considèrent Beishanlong comme un ornithomimosaurien basal en 2010.
 Cependant la description de nouveaux genres d'ornithomimosauriens a depuis remis en cause cette attribution.
-En 2012, Jin Liyong, Chen Jun et Pascal Godefroit le placent encore parmi les ornithomimosauriens mais en position moins basale[3].
-En 2014, à la suite de la reprise de la description du célèbre Deinocheirus mirificus de Mongolie, Yuong-Nam Lee et ses collègues, établissent une nouvelle phylogénie des Ornithomimosauria où Beishanlong est rattaché à la famille des deinocheiridés en groupe-frère d'un clade constitué des genres Garudimimus et Deinocheirus comme le montre leur cladogramme ci-dessous[4] :
+En 2012, Jin Liyong, Chen Jun et Pascal Godefroit le placent encore parmi les ornithomimosauriens mais en position moins basale.
+En 2014, à la suite de la reprise de la description du célèbre Deinocheirus mirificus de Mongolie, Yuong-Nam Lee et ses collègues, établissent une nouvelle phylogénie des Ornithomimosauria où Beishanlong est rattaché à la famille des deinocheiridés en groupe-frère d'un clade constitué des genres Garudimimus et Deinocheirus comme le montre leur cladogramme ci-dessous :
 </t>
         </is>
       </c>
